--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C67CB5D-2D33-47AF-BC6F-9DE09E20FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D44192-19AC-48DC-B9EA-3DF53F8D9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="20370" yWindow="-2460" windowWidth="29040" windowHeight="15720" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>instructions</t>
   </si>
@@ -47,29 +47,15 @@
     <t>oui</t>
   </si>
   <si>
-    <t>hasard</t>
-  </si>
-  <si>
-    <t>Acadie</t>
-  </si>
-  <si>
     <t>galerie</t>
   </si>
   <si>
-    <t>photos,
-trajetsAss,
-galerie</t>
-  </si>
-  <si>
     <t>liens</t>
   </si>
   <si>
     <t>couleurs</t>
   </si>
   <si>
-    <t>tableau</t>
-  </si>
-  <si>
     <t>Liste PDF et Excel</t>
   </si>
   <si>
@@ -77,14 +63,14 @@
   </si>
   <si>
     <t>images</t>
-  </si>
-  <si>
-    <t>images,
-avion</t>
   </si>
   <si>
     <t>villes et liaisons,
 carte</t>
+  </si>
+  <si>
+    <t>photos,
+galerie</t>
   </si>
 </sst>
 </file>
@@ -834,7 +820,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,17 +837,13 @@
       <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="3:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
@@ -870,7 +852,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -882,12 +864,10 @@
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
       <c r="H5" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
@@ -899,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>3</v>
@@ -915,7 +895,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="34"/>
       <c r="I7" s="33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="35"/>
     </row>
@@ -933,19 +913,17 @@
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="G9" s="33"/>
       <c r="H9" s="34"/>
       <c r="I9" s="33"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="3:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
@@ -954,7 +932,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="47"/>
       <c r="J10" s="49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D44192-19AC-48DC-B9EA-3DF53F8D9F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE56C6F-EA6C-4EA9-B60A-5C677183AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2460" windowWidth="29040" windowHeight="15720" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,9 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -425,12 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -501,6 +499,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,7 +827,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,84 +865,85 @@
     <row r="5" spans="3:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="3:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="42"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="3:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="3:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="49" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="46" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE56C6F-EA6C-4EA9-B60A-5C677183AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904247CB-56BD-4A44-8198-5E21660DEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>instructions</t>
   </si>
@@ -44,16 +44,7 @@
     <t>ajouter les sites</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
     <t>galerie</t>
-  </si>
-  <si>
-    <t>liens</t>
-  </si>
-  <si>
-    <t>couleurs</t>
   </si>
   <si>
     <t>Liste PDF et Excel</t>
@@ -71,6 +62,42 @@
   <si>
     <t>photos,
 galerie</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>trajets ass.</t>
+  </si>
+  <si>
+    <t>nouveautés</t>
+  </si>
+  <si>
+    <t>couleur et couleur de fond (props)</t>
+  </si>
+  <si>
+    <t>nouvelles photo carrousel</t>
+  </si>
+  <si>
+    <t>lien Ulysse</t>
+  </si>
+  <si>
+    <t>titres photos</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Ublock</t>
   </si>
 </sst>
 </file>
@@ -93,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +151,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -357,11 +390,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -509,6 +608,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
-  <dimension ref="C2:J10"/>
+  <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,112 +947,176 @@
     <col min="3" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7" t="s">
+    </row>
+    <row r="8" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="3:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="3:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="3:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="3:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="46" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904247CB-56BD-4A44-8198-5E21660DEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6A95E-1744-40C1-BC42-6EAD81BB41D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="22050" yWindow="1560" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>instructions</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>ajouter les sites</t>
-  </si>
-  <si>
-    <t>galerie</t>
   </si>
   <si>
     <t>Liste PDF et Excel</t>
@@ -938,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,41 +959,41 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
       <c r="H5" s="57"/>
       <c r="I5" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
         <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
         <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,9 +1004,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
@@ -1019,10 +1014,10 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1029,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1050,7 +1045,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
@@ -1063,7 +1058,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
       <c r="I11" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -1081,7 +1076,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -1091,7 +1086,7 @@
     </row>
     <row r="14" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
@@ -1100,14 +1095,14 @@
       <c r="H14" s="45"/>
       <c r="I14" s="44"/>
       <c r="J14" s="46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6A95E-1744-40C1-BC42-6EAD81BB41D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFFE28-EB35-41ED-A251-AF22C4A9D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22050" yWindow="1560" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -57,10 +57,6 @@
 carte</t>
   </si>
   <si>
-    <t>photos,
-galerie</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
@@ -95,6 +91,9 @@
   </si>
   <si>
     <t>Ublock</t>
+  </si>
+  <si>
+    <t>photos titre et alt</t>
   </si>
 </sst>
 </file>
@@ -936,7 +935,7 @@
   <dimension ref="B4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,41 +958,41 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
       <c r="H5" s="57"/>
       <c r="I5" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
         <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,10 +1013,10 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1029,7 +1028,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1045,7 +1044,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
@@ -1102,7 +1101,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFFE28-EB35-41ED-A251-AF22C4A9D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E38ED-A961-45F6-BFB3-EE2FDCCE52E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="1560" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>instructions</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>JSON</t>
-  </si>
-  <si>
-    <t>trajets ass.</t>
   </si>
   <si>
     <t>nouveautés</t>
@@ -935,7 +932,7 @@
   <dimension ref="B4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,13 +955,13 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
       <c r="H5" s="57"/>
       <c r="I5" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
@@ -978,13 +975,13 @@
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
@@ -1012,11 +1009,9 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1023,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1044,7 +1039,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
@@ -1101,7 +1096,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E38ED-A961-45F6-BFB3-EE2FDCCE52E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD532E9-A100-423C-91F4-2D0117A57426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>instructions</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Liste PDF et Excel</t>
-  </si>
-  <si>
-    <t>listePers - stockage</t>
   </si>
   <si>
     <t>images</t>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>titres photos</t>
-  </si>
-  <si>
-    <t>message</t>
   </si>
   <si>
     <t>Ublock</t>
@@ -931,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,41 +949,39 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
       <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
-        <v>16</v>
-      </c>
+      <c r="I5" s="58"/>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
         <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
         <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1003,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1015,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1039,7 +1031,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
@@ -1052,7 +1044,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
       <c r="I11" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -1079,9 +1071,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="40" t="s">
-        <v>4</v>
-      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
@@ -1089,14 +1079,14 @@
       <c r="H14" s="45"/>
       <c r="I14" s="44"/>
       <c r="J14" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD532E9-A100-423C-91F4-2D0117A57426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315296E-4B3C-4196-8B6A-3E3927D54EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>instructions</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>ajouter les sites</t>
-  </si>
-  <si>
-    <t>Liste PDF et Excel</t>
-  </si>
-  <si>
-    <t>images</t>
   </si>
   <si>
     <t>villes et liaisons,
@@ -926,7 +920,7 @@
   <dimension ref="B4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +943,7 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
@@ -957,31 +951,31 @@
       <c r="I5" s="58"/>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,7 +997,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1015,7 +1009,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1031,7 +1025,7 @@
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
@@ -1043,9 +1037,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="I11" s="30"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,9 +1053,7 @@
     <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
       <c r="H13" s="31"/>
@@ -1079,14 +1069,14 @@
       <c r="H14" s="45"/>
       <c r="I14" s="44"/>
       <c r="J14" s="46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315296E-4B3C-4196-8B6A-3E3927D54EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A7019-11E2-4688-8022-DB1355E164E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="22395" yWindow="1905" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -72,13 +72,13 @@
     <t>lien Ulysse</t>
   </si>
   <si>
-    <t>titres photos</t>
-  </si>
-  <si>
     <t>Ublock</t>
   </si>
   <si>
     <t>photos titre et alt</t>
+  </si>
+  <si>
+    <t>alt photos</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
   <dimension ref="B4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,7 @@
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
       <c r="H6" s="54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
@@ -997,7 +997,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A7019-11E2-4688-8022-DB1355E164E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5498F-9FD7-4C03-A7C6-5EB58B829082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22395" yWindow="1905" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>instructions</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>photos titre et alt</t>
-  </si>
-  <si>
-    <t>alt photos</t>
   </si>
 </sst>
 </file>
@@ -920,7 +917,7 @@
   <dimension ref="B4:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,9 +963,7 @@
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="54" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6" s="54"/>
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE5498F-9FD7-4C03-A7C6-5EB58B829082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB8234-F0CF-40BC-A92D-AB4454B3D685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22395" yWindow="1905" windowWidth="16200" windowHeight="9270" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>instructions</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>JSON</t>
-  </si>
-  <si>
-    <t>nouveautés</t>
   </si>
   <si>
     <t>couleur et couleur de fond (props)</t>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +90,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -598,6 +602,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +947,7 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
@@ -957,8 +964,8 @@
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="60" t="s">
-        <v>10</v>
+      <c r="D6" s="61" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
@@ -992,7 +999,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1011,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
@@ -1019,9 +1026,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="H10" s="24"/>
       <c r="I10" s="23"/>
       <c r="J10" s="25"/>
     </row>
@@ -1071,7 +1076,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
       <c r="E15" s="58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="59"/>
     </row>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB8234-F0CF-40BC-A92D-AB4454B3D685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A79D93-F7E0-4F7D-89A6-85DAA4893898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>instructions</t>
   </si>
@@ -60,16 +60,10 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>couleur et couleur de fond (props)</t>
-  </si>
-  <si>
     <t>nouvelles photo carrousel</t>
   </si>
   <si>
     <t>lien Ulysse</t>
-  </si>
-  <si>
-    <t>Ublock</t>
   </si>
   <si>
     <t>photos titre et alt</t>
@@ -923,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +941,7 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
@@ -965,7 +959,7 @@
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
@@ -999,7 +993,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1010,9 +1004,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
     </row>
@@ -1075,9 +1067,7 @@
     <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="58" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="58"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A79D93-F7E0-4F7D-89A6-85DAA4893898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F95BA4-D267-4A86-85D1-B37338E7F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>lien Ulysse</t>
   </si>
   <si>
-    <t>photos titre et alt</t>
+    <t>alt</t>
   </si>
 </sst>
 </file>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F95BA4-D267-4A86-85D1-B37338E7F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F957B3-3AA3-425A-A6FC-14CCD848C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>instructions</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>lien Ulysse</t>
-  </si>
-  <si>
-    <t>alt</t>
   </si>
 </sst>
 </file>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,9 +989,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="2:12" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>

--- a/Complétion.xlsx
+++ b/Complétion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MEGAsync\AUTRES\Informatique\CycloReact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F957B3-3AA3-425A-A6FC-14CCD848C66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00397D19-A884-43C9-8338-DB5788A87F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8EE975C1-74C2-4F6F-A39A-69056A6E7351}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>instructions</t>
   </si>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>ajouter les sites</t>
-  </si>
-  <si>
-    <t>villes et liaisons,
-carte</t>
   </si>
   <si>
     <t>HTML</t>
@@ -914,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF1822-07C3-4BA8-A79E-817FABB72754}">
   <dimension ref="B4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +934,7 @@
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
       <c r="E5" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
@@ -946,17 +942,17 @@
       <c r="I5" s="58"/>
       <c r="J5" s="59"/>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="50"/>
       <c r="D6" s="61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="55"/>
@@ -965,10 +961,10 @@
       <c r="I6" s="50"/>
       <c r="J6" s="51"/>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,7 +1043,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
@@ -1056,7 +1052,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="44"/>
       <c r="J14" s="46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
